--- a/datastatic/datasets/online/D-Equality_Palma_Ratio_OECD_2013.xlsx
+++ b/datastatic/datasets/online/D-Equality_Palma_Ratio_OECD_2013.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D-Equality_Palma_Ratio_OECD_2012.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D-Equality_Palma_Ratio_OECD_201" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/D-Equality_Palma_Ratio_OECD_2013.xlsx
+++ b/datastatic/datasets/online/D-Equality_Palma_Ratio_OECD_2013.xlsx
@@ -305,7 +305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -326,6 +326,11 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -367,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -420,6 +425,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -729,7 +737,9 @@
       <c r="A38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="18">
+        <v>1.24</v>
+      </c>
       <c r="C38" s="17">
         <v>1.24</v>
       </c>
@@ -857,7 +867,9 @@
       <c r="A50" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="16"/>
+      <c r="B50" s="18">
+        <v>1.03</v>
+      </c>
       <c r="C50" s="17">
         <v>1.03</v>
       </c>
@@ -910,7 +922,9 @@
       <c r="A55" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="16"/>
+      <c r="B55" s="18">
+        <v>1.25</v>
+      </c>
       <c r="C55" s="17">
         <v>1.25</v>
       </c>
@@ -963,7 +977,9 @@
       <c r="A60" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="18">
+        <v>2.54</v>
+      </c>
       <c r="C60" s="17">
         <v>2.54</v>
       </c>
@@ -983,7 +999,9 @@
       <c r="A62" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="16"/>
+      <c r="B62" s="18">
+        <v>1.3</v>
+      </c>
       <c r="C62" s="17">
         <v>1.3</v>
       </c>

--- a/datastatic/datasets/online/D-Equality_Palma_Ratio_OECD_2013.xlsx
+++ b/datastatic/datasets/online/D-Equality_Palma_Ratio_OECD_2013.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D-Equality_Palma_Ratio_OECD_2012.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D-Equality_Palma_Ratio_OECD_201" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -64,7 +64,7 @@
     <t>long_indicator_description$de$text</t>
   </si>
   <si>
-    <t xml:space="preserve">Das Palma Verhältnis misst Ungleichheit des verfügbaren Einkommens (Verdienst, Kapitaleinkommen, Sozialleistungen, abzüglich Steuern) innerhalb einer Gesellschaft. Es ist der Anteil aller Einkommen in einem Land, das von den 10% der Bevölkerung mit dem höchsten Einkommen verdienst wird, geteilt durch das Einkommen der 40% der Bevölkerung, die das niedrigste Einkommen hat. Ein Palma Verhältnis von 2 bedeutet, dass die 10% mit dem höchsten Einkommen zweimal so viel verdienen wie die 40% mit dem niedrigsten Einkommen. Durch die Berechnung des Palma Verhältnises kann es besonders Ungleichheiten zwischen den Ärmsten und Reichsten einer Gesellschaft abbilden. Es zeigt aber nicht, wo sich die Mittelschift befindet. Dafür können andere Indikatoren, wie beispielsweise der Gini-Koeffizient, der auch bei 2030 Watch zu finden ist, hilfreich sein. </t>
+    <t xml:space="preserve">Das Palma Verhältnis misst Ungleichheit des verfügbaren Einkommens (Verdienst, Kapitaleinkommen, Sozialleistungen, abzüglich Steuern) innerhalb einer Gesellschaft. Es ist der Anteil aller Einkommen in einem Land, das von den 10% der Bevölkerung mit dem höchsten Einkommen verdient wird, geteilt durch das Einkommen der 40% der Bevölkerung, die das niedrigste Einkommen hat. Ein Palma Verhältnis von 2 bedeutet, dass die 10% mit dem höchsten Einkommen zweimal so viel verdienen wie die 40% mit dem niedrigsten Einkommen. Durch die Berechnung des Palma Verhältnises kann es besonders Ungleichheiten zwischen den Ärmsten und Reichsten einer Gesellschaft abbilden. Es zeigt aber nicht, wo sich die Mittelschift befindet. Dafür können andere Indikatoren, wie beispielsweise der Gini-Koeffizient, der auch bei 2030 Watch zu finden ist, hilfreich sein. </t>
   </si>
   <si>
     <t>long_indicator_description$de$baseunit</t>
@@ -305,7 +305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -326,6 +326,11 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -367,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -420,6 +425,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -729,7 +737,9 @@
       <c r="A38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="18">
+        <v>1.24</v>
+      </c>
       <c r="C38" s="17">
         <v>1.24</v>
       </c>
@@ -857,7 +867,9 @@
       <c r="A50" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="16"/>
+      <c r="B50" s="18">
+        <v>1.03</v>
+      </c>
       <c r="C50" s="17">
         <v>1.03</v>
       </c>
@@ -910,7 +922,9 @@
       <c r="A55" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="16"/>
+      <c r="B55" s="18">
+        <v>1.25</v>
+      </c>
       <c r="C55" s="17">
         <v>1.25</v>
       </c>
@@ -963,7 +977,9 @@
       <c r="A60" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="18">
+        <v>2.54</v>
+      </c>
       <c r="C60" s="17">
         <v>2.54</v>
       </c>
@@ -983,7 +999,9 @@
       <c r="A62" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="16"/>
+      <c r="B62" s="18">
+        <v>1.3</v>
+      </c>
       <c r="C62" s="17">
         <v>1.3</v>
       </c>
